--- a/new_file.xlsx
+++ b/new_file.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,211 +454,429 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Rain</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Rain</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Thurs</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Sun</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>Sun</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>Sun</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Thurs</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>Sun</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Sun</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Sun</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>day</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>temp</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Mday</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tday</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Wday</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tday</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>14</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Fday</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>21</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Satday</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>22</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Sunday</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>24</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
       <c r="B15" t="n">
-        <v>24</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Sunny</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/new_file.xlsx
+++ b/new_file.xlsx
@@ -454,210 +454,210 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Sun</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>Sun</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>Sun</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Thurs</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>Sun</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Sun</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Sun</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Sun</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Rain</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Wed</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Rain</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Thurs</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fri</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sat</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sun</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -698,185 +698,185 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Mday</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B9" t="n">
         <v>12</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Tday</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B10" t="n">
         <v>14</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Wday</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B11" t="n">
         <v>15</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>c</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Tday</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B12" t="n">
         <v>14</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>d</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Fday</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B13" t="n">
         <v>21</v>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>e</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Satday</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B14" t="n">
         <v>22</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>f</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Sunday</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B15" t="n">
         <v>24</v>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>g</t>
         </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>1</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>1</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
